--- a/src/prommis/solvent_extraction/1M HCl experimental data.xlsx
+++ b/src/prommis/solvent_extraction/1M HCl experimental data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad00105\Desktop\Model_software\prommis\src\prommis\solvent_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B7CB49-81EB-416F-A4D6-ADF9EC8348E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE2A33-C6F5-45D3-A831-6ED88EC441A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/src/prommis/solvent_extraction/1M HCl experimental data.xlsx
+++ b/src/prommis/solvent_extraction/1M HCl experimental data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad00105\Desktop\Model_software\prommis\src\prommis\solvent_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE2A33-C6F5-45D3-A831-6ED88EC441A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DE52B6-B167-4F8C-9959-2EB25EA88473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
   <si>
     <t xml:space="preserve">t </t>
   </si>
@@ -79,6 +81,9 @@
   <si>
     <t>Fe</t>
   </si>
+  <si>
+    <t>BDL</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +112,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +137,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="16"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,11 +189,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -184,10 +209,62 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{79F82E36-632D-42D7-BF47-D98755359E2D}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{9F05F651-B4E2-490A-9934-B99F72A44919}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,4 +1168,1144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92CA69-B06B-4A35-8266-D7C852EC699C}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>154.40655479528621</v>
+      </c>
+      <c r="C2" s="9">
+        <v>21.001169841035964</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.28731111709479429</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.2109798054896299</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.9163091448043355</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.41413683343218238</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.21398321767998879</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.44152143523708887</v>
+      </c>
+      <c r="J2" s="14">
+        <v>820</v>
+      </c>
+      <c r="K2">
+        <v>3707</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M2">
+        <v>443.79250337113723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11">
+        <v>235.11099742597114</v>
+      </c>
+      <c r="C3" s="11">
+        <v>561.63173863523218</v>
+      </c>
+      <c r="D3" s="12">
+        <v>80.032479416644478</v>
+      </c>
+      <c r="E3" s="11">
+        <v>345.51085395706735</v>
+      </c>
+      <c r="F3" s="12">
+        <v>94.525158500601989</v>
+      </c>
+      <c r="G3" s="12">
+        <v>93.068535134302564</v>
+      </c>
+      <c r="H3" s="12">
+        <v>77.636319294840021</v>
+      </c>
+      <c r="I3" s="11">
+        <v>377.64328714135092</v>
+      </c>
+      <c r="J3" s="15">
+        <v>3835</v>
+      </c>
+      <c r="K3">
+        <v>140700</v>
+      </c>
+      <c r="L3">
+        <v>1.7183160257913546</v>
+      </c>
+      <c r="M3">
+        <v>13408.390370980964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11">
+        <v>292.68003633831142</v>
+      </c>
+      <c r="C4" s="11">
+        <v>789.09987688117121</v>
+      </c>
+      <c r="D4" s="11">
+        <v>114.24680770502459</v>
+      </c>
+      <c r="E4" s="11">
+        <v>494.15878778229182</v>
+      </c>
+      <c r="F4" s="11">
+        <v>129.05358597729222</v>
+      </c>
+      <c r="G4" s="11">
+        <v>123.90482080889534</v>
+      </c>
+      <c r="H4" s="11">
+        <v>102.80237290484035</v>
+      </c>
+      <c r="I4" s="11">
+        <v>525.81344065801045</v>
+      </c>
+      <c r="J4" s="15">
+        <v>3351</v>
+      </c>
+      <c r="K4">
+        <v>151600</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M4">
+        <v>17211.355403168931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11">
+        <v>338.82519355835143</v>
+      </c>
+      <c r="C5" s="11">
+        <v>965.33931502974394</v>
+      </c>
+      <c r="D5" s="11">
+        <v>142.49810718266647</v>
+      </c>
+      <c r="E5" s="11">
+        <v>617.57103346220185</v>
+      </c>
+      <c r="F5" s="11">
+        <v>156.58639541618962</v>
+      </c>
+      <c r="G5" s="11">
+        <v>150.2326469682549</v>
+      </c>
+      <c r="H5" s="11">
+        <v>126.88406592409058</v>
+      </c>
+      <c r="I5" s="11">
+        <v>668.04020982155828</v>
+      </c>
+      <c r="J5" s="15">
+        <v>3596</v>
+      </c>
+      <c r="K5">
+        <v>164700</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M5">
+        <v>28058.808842977669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11">
+        <v>389.89652315218984</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1185.170807039872</v>
+      </c>
+      <c r="D6" s="11">
+        <v>178.73759184228032</v>
+      </c>
+      <c r="E6" s="11">
+        <v>776.04242732600699</v>
+      </c>
+      <c r="F6" s="11">
+        <v>200.19673262507158</v>
+      </c>
+      <c r="G6" s="11">
+        <v>186.04219305547178</v>
+      </c>
+      <c r="H6" s="11">
+        <v>156.91491357837137</v>
+      </c>
+      <c r="I6" s="11">
+        <v>849.81128899574946</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3316</v>
+      </c>
+      <c r="K6">
+        <v>176300</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M6">
+        <v>22863.671682018321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11">
+        <v>471.06403709136333</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1501.3720397524887</v>
+      </c>
+      <c r="D7" s="11">
+        <v>230.70410045882267</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1011.0687674995652</v>
+      </c>
+      <c r="F7" s="11">
+        <v>263.28290475007458</v>
+      </c>
+      <c r="G7" s="11">
+        <v>245.86597860251703</v>
+      </c>
+      <c r="H7" s="11">
+        <v>206.65837329904721</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1109.8337162501355</v>
+      </c>
+      <c r="J7" s="15">
+        <v>3464</v>
+      </c>
+      <c r="K7">
+        <v>193000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M7">
+        <v>27547.336046696888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>57</v>
+      </c>
+      <c r="B8" s="11">
+        <v>554.15193576451918</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1854.1694132518471</v>
+      </c>
+      <c r="D8" s="11">
+        <v>287.12810542713248</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1266.1336002698756</v>
+      </c>
+      <c r="F8" s="11">
+        <v>327.50056801150805</v>
+      </c>
+      <c r="G8" s="11">
+        <v>307.44397044573117</v>
+      </c>
+      <c r="H8" s="11">
+        <v>258.02369044263867</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1456.8737829785177</v>
+      </c>
+      <c r="J8" s="15">
+        <v>3983</v>
+      </c>
+      <c r="K8">
+        <v>209600</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M8">
+        <v>32097.975139958566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>66</v>
+      </c>
+      <c r="B9" s="11">
+        <v>620.49388472388205</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2247.195097762587</v>
+      </c>
+      <c r="D9" s="11">
+        <v>331.11999575428797</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1456.0678879445622</v>
+      </c>
+      <c r="F9" s="11">
+        <v>378.18983647454678</v>
+      </c>
+      <c r="G9" s="11">
+        <v>354.35773271023419</v>
+      </c>
+      <c r="H9" s="11">
+        <v>311.51074761424263</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1763.0275517833534</v>
+      </c>
+      <c r="J9" s="15">
+        <v>3629</v>
+      </c>
+      <c r="K9">
+        <v>222900</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M9">
+        <v>34188.844352189408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>81</v>
+      </c>
+      <c r="B10" s="11">
+        <v>748.06986386094695</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2788.5899795797768</v>
+      </c>
+      <c r="D10" s="11">
+        <v>419.40563402108558</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1850.7414656614712</v>
+      </c>
+      <c r="F10" s="11">
+        <v>490.36974304290493</v>
+      </c>
+      <c r="G10" s="11">
+        <v>465.43471487796648</v>
+      </c>
+      <c r="H10" s="11">
+        <v>402.14483655595279</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2356.8192705173929</v>
+      </c>
+      <c r="J10" s="15">
+        <v>3782</v>
+      </c>
+      <c r="K10">
+        <v>246600</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M10">
+        <v>41353.742566664805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>90</v>
+      </c>
+      <c r="B11" s="11">
+        <v>831.85888982787537</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3144.2664246983518</v>
+      </c>
+      <c r="D11" s="11">
+        <v>474.47496394469198</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2068.0413364902529</v>
+      </c>
+      <c r="F11" s="11">
+        <v>553.18583700592069</v>
+      </c>
+      <c r="G11" s="11">
+        <v>522.96194107132658</v>
+      </c>
+      <c r="H11" s="11">
+        <v>460.39865236996098</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2735.6755082776308</v>
+      </c>
+      <c r="J11" s="15">
+        <v>3813</v>
+      </c>
+      <c r="K11">
+        <v>265800</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M11">
+        <v>46814.898317996129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>100</v>
+      </c>
+      <c r="B12" s="11">
+        <v>982.18308385031673</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3803.7878553173928</v>
+      </c>
+      <c r="D12" s="11">
+        <v>574.59086001511025</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2542.4155982277493</v>
+      </c>
+      <c r="F12" s="11">
+        <v>676.05655504713184</v>
+      </c>
+      <c r="G12" s="11">
+        <v>631.0126030794753</v>
+      </c>
+      <c r="H12" s="11">
+        <v>556.96273171508039</v>
+      </c>
+      <c r="I12" s="11">
+        <v>3221.1694275412142</v>
+      </c>
+      <c r="J12" s="15">
+        <v>3912</v>
+      </c>
+      <c r="K12">
+        <v>285100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M12">
+        <v>49389.30515203614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>105</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1258.4642312297765</v>
+      </c>
+      <c r="C13" s="13">
+        <v>4757.2519750251668</v>
+      </c>
+      <c r="D13" s="13">
+        <v>709.4087529520981</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3134.9881629157067</v>
+      </c>
+      <c r="F13" s="13">
+        <v>823.2342093856555</v>
+      </c>
+      <c r="G13" s="13">
+        <v>786.55726458194647</v>
+      </c>
+      <c r="H13" s="13">
+        <v>718.8397690294571</v>
+      </c>
+      <c r="I13" s="13">
+        <v>4565.1901270389044</v>
+      </c>
+      <c r="J13" s="14">
+        <v>5900</v>
+      </c>
+      <c r="K13">
+        <v>503900</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M13">
+        <v>84783.692742058513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94D723D-EF4E-4C66-915D-C184341E1FBD}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.13566571557392784</v>
+      </c>
+      <c r="I2">
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>3290.1990694314509</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>668.64112386918328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>93.62628617331201</v>
+      </c>
+      <c r="C3" s="4">
+        <v>423.51180201343811</v>
+      </c>
+      <c r="D3" s="4">
+        <v>65.788076348714881</v>
+      </c>
+      <c r="E3" s="4">
+        <v>296.73595610178683</v>
+      </c>
+      <c r="F3" s="3">
+        <v>71.701155594482842</v>
+      </c>
+      <c r="G3">
+        <v>70.396242948164158</v>
+      </c>
+      <c r="H3" s="3">
+        <v>62.888279822742547</v>
+      </c>
+      <c r="I3">
+        <v>319.83049768305511</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>30542.831843275431</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>5636.9714232704391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>189.32298725969574</v>
+      </c>
+      <c r="C4" s="4">
+        <v>779.87001965441971</v>
+      </c>
+      <c r="D4" s="4">
+        <v>116.82373689714521</v>
+      </c>
+      <c r="E4" s="4">
+        <v>509.56737186015403</v>
+      </c>
+      <c r="F4" s="4">
+        <v>115.55495050885396</v>
+      </c>
+      <c r="G4">
+        <v>112.09916031830423</v>
+      </c>
+      <c r="H4" s="3">
+        <v>93.777832087495426</v>
+      </c>
+      <c r="I4">
+        <v>487.28089523769972</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>61279.591203360469</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>8799.1432523627354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
+        <v>297.77831059418236</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1080.1065658173645</v>
+      </c>
+      <c r="D5" s="4">
+        <v>159.51782719660164</v>
+      </c>
+      <c r="E5" s="4">
+        <v>695.9424507334719</v>
+      </c>
+      <c r="F5" s="4">
+        <v>158.03894743774242</v>
+      </c>
+      <c r="G5">
+        <v>150.91627534935193</v>
+      </c>
+      <c r="H5" s="4">
+        <v>129.21195159706858</v>
+      </c>
+      <c r="I5">
+        <v>670.49458501721347</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>112534.78648927118</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>10632.876630801056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>351.41466293860299</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1276.944794236681</v>
+      </c>
+      <c r="D6" s="4">
+        <v>186.48452840114089</v>
+      </c>
+      <c r="E6" s="4">
+        <v>811.31273127985673</v>
+      </c>
+      <c r="F6" s="4">
+        <v>183.62682099014998</v>
+      </c>
+      <c r="G6">
+        <v>176.39817160660851</v>
+      </c>
+      <c r="H6" s="4">
+        <v>149.67201283765186</v>
+      </c>
+      <c r="I6">
+        <v>791.56215288257238</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>139690.80560833038</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>12777.872062247068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <v>460.63325681133819</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1676.0538833320186</v>
+      </c>
+      <c r="D7" s="4">
+        <v>247.79395120534895</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1103.7561593490784</v>
+      </c>
+      <c r="F7" s="4">
+        <v>254.26554781032416</v>
+      </c>
+      <c r="G7">
+        <v>239.35407186213666</v>
+      </c>
+      <c r="H7" s="4">
+        <v>207.93296033081</v>
+      </c>
+      <c r="I7">
+        <v>1086.7545290588293</v>
+      </c>
+      <c r="J7" s="22">
+        <v>987</v>
+      </c>
+      <c r="K7">
+        <v>186113.79188966923</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>14978.594279346971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4">
+        <v>587.39025111418766</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2143.9301133667291</v>
+      </c>
+      <c r="D8" s="4">
+        <v>319.9589077582736</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1373.2732620598579</v>
+      </c>
+      <c r="F8" s="4">
+        <v>318.7563728087124</v>
+      </c>
+      <c r="G8">
+        <v>312.32406822245861</v>
+      </c>
+      <c r="H8" s="4">
+        <v>262.90524362106584</v>
+      </c>
+      <c r="I8">
+        <v>1401.1708480507789</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>239656.91224609807</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>17748.224406523914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>64</v>
+      </c>
+      <c r="B9" s="4">
+        <v>702.12236181392325</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2527.4151924616499</v>
+      </c>
+      <c r="D9" s="4">
+        <v>373.23455414134531</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1633.0794386852019</v>
+      </c>
+      <c r="F9" s="4">
+        <v>368.66403660064645</v>
+      </c>
+      <c r="G9">
+        <v>355.12906869040592</v>
+      </c>
+      <c r="H9" s="4">
+        <v>308.31883310286929</v>
+      </c>
+      <c r="I9">
+        <v>1663.3532652339013</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>280117.35047311202</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>20479.217640052913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4">
+        <v>822.41698620418094</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2999.941100471216</v>
+      </c>
+      <c r="D10" s="4">
+        <v>445.62269830545159</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1942.0764365555094</v>
+      </c>
+      <c r="F10" s="4">
+        <v>457.08969431306639</v>
+      </c>
+      <c r="G10">
+        <v>439.27108551933543</v>
+      </c>
+      <c r="H10" s="4">
+        <v>386.37905099198497</v>
+      </c>
+      <c r="I10">
+        <v>2060.6529109283583</v>
+      </c>
+      <c r="J10" s="22">
+        <v>923</v>
+      </c>
+      <c r="K10">
+        <v>320994.05100704997</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>22221.939525601829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1075.3602011452663</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3897.5292328547057</v>
+      </c>
+      <c r="D11" s="4">
+        <v>578.5727352178294</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2511.6857187239971</v>
+      </c>
+      <c r="F11" s="4">
+        <v>579.27333066674646</v>
+      </c>
+      <c r="G11">
+        <v>562.40218194416855</v>
+      </c>
+      <c r="H11" s="4">
+        <v>490.72345252928261</v>
+      </c>
+      <c r="I11">
+        <v>2530.5404964451063</v>
+      </c>
+      <c r="J11" s="22">
+        <v>945</v>
+      </c>
+      <c r="K11">
+        <v>397361.60827228456</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>25792.002422949263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>91</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1283.1222926027895</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4620.417241290299</v>
+      </c>
+      <c r="D12" s="4">
+        <v>687.74978946234717</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2957.2190897081014</v>
+      </c>
+      <c r="F12" s="4">
+        <v>687.05664603245589</v>
+      </c>
+      <c r="G12">
+        <v>671.91287637830192</v>
+      </c>
+      <c r="H12" s="4">
+        <v>580.66056833846847</v>
+      </c>
+      <c r="I12">
+        <v>3062.4659968382753</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1255</v>
+      </c>
+      <c r="K12">
+        <v>468345.26742314262</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>29815.07297656075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>97</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1512.2606048092698</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5494.2085334238554</v>
+      </c>
+      <c r="D13" s="4">
+        <v>816.15412490243375</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3550.9988464872026</v>
+      </c>
+      <c r="F13" s="4">
+        <v>828.73061472741847</v>
+      </c>
+      <c r="G13">
+        <v>804.30032958949869</v>
+      </c>
+      <c r="H13" s="4">
+        <v>694.80887117495479</v>
+      </c>
+      <c r="I13">
+        <v>3662.4480107258782</v>
+      </c>
+      <c r="J13" s="22">
+        <v>1151</v>
+      </c>
+      <c r="K13">
+        <v>556379.87721249287</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>33593.401095169698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>101</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1728.9884254901651</v>
+      </c>
+      <c r="C14" s="20">
+        <v>6313.5187707305058</v>
+      </c>
+      <c r="D14" s="20">
+        <v>932.10379576841001</v>
+      </c>
+      <c r="E14" s="20">
+        <v>4071.0062919026018</v>
+      </c>
+      <c r="F14" s="20">
+        <v>952.58805135326804</v>
+      </c>
+      <c r="G14">
+        <v>927.75723502853668</v>
+      </c>
+      <c r="H14" s="20">
+        <v>810.55482286930464</v>
+      </c>
+      <c r="I14">
+        <v>4207.6531982920606</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1344</v>
+      </c>
+      <c r="K14">
+        <v>641670.00551544083</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>36713.653289506954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>